--- a/Roberto/Kmeans_rts_percentual.xlsx
+++ b/Roberto/Kmeans_rts_percentual.xlsx
@@ -14,7 +14,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>maiorAtraso</t>
+  </si>
+  <si>
+    <t>margemBrutaAcumulada</t>
+  </si>
+  <si>
+    <t>prazoMedioRecebimentoVendas</t>
+  </si>
+  <si>
+    <t>titulosEmAberto</t>
+  </si>
+  <si>
+    <t>valorSolicitado</t>
+  </si>
+  <si>
+    <t>percentualRisco</t>
+  </si>
+  <si>
+    <t>ativoCirculante</t>
+  </si>
+  <si>
+    <t>passivoCirculante</t>
+  </si>
+  <si>
+    <t>totalAtivo</t>
+  </si>
+  <si>
+    <t>totalPatrimonioLiquido</t>
+  </si>
+  <si>
+    <t>endividamento</t>
+  </si>
+  <si>
+    <t>duplicatasAReceber</t>
+  </si>
+  <si>
+    <t>estoque</t>
+  </si>
   <si>
     <t>faturamentoBruto</t>
   </si>
@@ -22,10 +61,22 @@
     <t>margemBruta</t>
   </si>
   <si>
+    <t>custos</t>
+  </si>
+  <si>
+    <t>capitalSocial</t>
+  </si>
+  <si>
     <t>restricoes</t>
   </si>
   <si>
+    <t>empresa_MeEppMei</t>
+  </si>
+  <si>
     <t>scorePontualidade</t>
+  </si>
+  <si>
+    <t>limiteEmpresaAnaliseCredito</t>
   </si>
 </sst>
 </file>
@@ -383,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +453,59 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -411,16 +513,67 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>58.24</v>
       </c>
       <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>49.7</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>90.15000000000001</v>
       </c>
-      <c r="E2">
-        <v>33.88</v>
+      <c r="T2">
+        <v>100</v>
+      </c>
+      <c r="U2">
+        <v>33.62</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -428,16 +581,67 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>61.33</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>20.81</v>
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>19.63</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>33.62</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -445,16 +649,67 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>30.33</v>
       </c>
       <c r="D4">
-        <v>90.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>33.09</v>
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>40.64</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>23.24</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -462,13 +717,132 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>21.47</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>19.63</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="U5">
         <v>20.81</v>
+      </c>
+      <c r="V5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>21.47</v>
+      </c>
+      <c r="D6">
+        <v>99.87</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>49.7</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="T6">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="U6">
+        <v>20.81</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
